--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL_SVN\Documents\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241E1505-1121-42B4-BBDA-5B639BA28BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A74E5C-75B1-49D6-A570-0C5F21BCFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -186,10 +195,6 @@
   </si>
   <si>
     <t>AuthNoLike</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AuthNo %</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -262,7 +267,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BranchAuthNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthNo % ,AND Status&gt;= ,AND Status&lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">BranchNo = ,AND LevelFg = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchNo = ,AND AuthNo % ,AND Status&gt;= ,AND Status&lt;=</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -526,6 +543,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -537,12 +560,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -886,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -902,10 +919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
         <v>31</v>
       </c>
@@ -917,8 +934,8 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
@@ -930,10 +947,10 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
@@ -943,10 +960,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="6"/>
       <c r="D4" s="16"/>
       <c r="E4" s="14"/>
@@ -954,10 +971,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="6"/>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -965,10 +982,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="6"/>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -976,10 +993,10 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="6"/>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
@@ -1074,10 +1091,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>14</v>
@@ -1094,20 +1111,20 @@
         <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>16</v>
@@ -1218,11 +1235,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1249,21 +1266,32 @@
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxAuthGroup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A74E5C-75B1-49D6-A570-0C5F21BCFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D3722F-86C8-4225-A5FD-CBB32674DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1239,7 +1239,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
